--- a/Autorizaciones/Autorizacion_TEST-004.xlsx
+++ b/Autorizaciones/Autorizacion_TEST-004.xlsx
@@ -751,6 +751,31 @@
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1176,7 +1201,6 @@
           <t xml:space="preserve">Servicios </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" s="39" t="inlineStr">
         <is>
           <t>Otros</t>
